--- a/medicine/Médecine vétérinaire/École_inter-États_des_sciences_et_médecine_vétérinaires_de_Dakar/École_inter-États_des_sciences_et_médecine_vétérinaires_de_Dakar.xlsx
+++ b/medicine/Médecine vétérinaire/École_inter-États_des_sciences_et_médecine_vétérinaires_de_Dakar/École_inter-États_des_sciences_et_médecine_vétérinaires_de_Dakar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_inter-%C3%89tats_des_sciences_et_m%C3%A9decine_v%C3%A9t%C3%A9rinaires_de_Dakar</t>
+          <t>École_inter-États_des_sciences_et_médecine_vétérinaires_de_Dakar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'École Inter-États des Sciences et Médecine Vétérinaires de Dakar (EISMV) est une école vétérinaire située à Dakar, au Sénégal.
 Actuellement l'EISMV rassemble 14 États membres qui participent à son budget de fonctionnement : le Bénin, le Burkina Faso, le Burundi, le Cameroun, la Côte d'Ivoire, la République du Congo, le Gabon, la Mauritanie, le Niger, la République centrafricaine, le Sénégal, le Tchad, le Togo et le Mali.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_inter-%C3%89tats_des_sciences_et_m%C3%A9decine_v%C3%A9t%C3%A9rinaires_de_Dakar</t>
+          <t>École_inter-États_des_sciences_et_médecine_vétérinaires_de_Dakar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1961, à l'occasion des journées médicales de Dakar, fut lancée l'idée de création, dans le cadre de l'Université de Dakar, d'une faculté vétérinaire pour tous les États d'Afrique d'expression française. En 1971, la Conférence des chefs d'État et de gouvernement de l'Organisation commune africaine et malgache (OCAM) adopte la convention portant création et organisation de l'école inter-États des sciences et médecine vétérinaires de Dakar. Après avoir fonctionné comme institut de l'université de Dakar de 1968 à 1976, elle a acquis son autonomie complète en 1976.
 Le Mali est le dernier pays à devenir membre de l'EISMV, depuis la 37e session du conseil d'administration qui s'est ténu à Yaoundé au Cameroun.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cole_inter-%C3%89tats_des_sciences_et_m%C3%A9decine_v%C3%A9t%C3%A9rinaires_de_Dakar</t>
+          <t>École_inter-États_des_sciences_et_médecine_vétérinaires_de_Dakar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>But de l'établissement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’EISMV de Dakar a pour missions de former des docteurs vétérinaires, de réaliser des formations continues, d’apporter l’expertise et autres prestations de service aux États membres.
 L’école a une double vocation d’enseignement et de recherche. Elle dispense un enseignement supérieur vétérinaire répondant au profil du vétérinaire en Afrique. Cet enseignement est constitué par l’ensemble des connaissances indispensables à tous les vétérinaires, c’est-à-dire tout ce qui concerne la santé et les productions animales, la conservation et l’exploitation des animaux, notamment la zootechnie, l’hygiène, la médecine, la chirurgie et la pharmacie des animaux domestiques, ainsi que le contrôle et l’utilisation des produits d’origine animale, y compris les produits de la pêche.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cole_inter-%C3%89tats_des_sciences_et_m%C3%A9decine_v%C3%A9t%C3%A9rinaires_de_Dakar</t>
+          <t>École_inter-États_des_sciences_et_médecine_vétérinaires_de_Dakar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Formation et matières enseignées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’enseignement à l’école vétérinaire est un enseignement à plein temps qui comprend des enseignements théoriques, pratiques, dirigés et des stages.
 En année préparatoire, la durée des enseignements est de 620 h réparties en différentes matières :
@@ -620,7 +638,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89cole_inter-%C3%89tats_des_sciences_et_m%C3%A9decine_v%C3%A9t%C3%A9rinaires_de_Dakar</t>
+          <t>École_inter-États_des_sciences_et_médecine_vétérinaires_de_Dakar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,7 +656,9 @@
           <t>Débouchés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Services publics et parapublics (hiérarchie A – indice 1700-3580) ou secteur privé : on peut noter entre autres débouchés : pharmacies vétérinaires – industries de la viande, du lait, du miel, des œufs, du poisson et des produits halieutiques – les industries de fabrication des aliments de bétail – les cabinets vétérinaires – encadrement des éleveurs et des promoteurs - enseignement et recherche. Spécialisations : après les études, selon les besoins des États, des spécialisations courtes à l’étranger peuvent être envisagées.
 </t>
@@ -651,7 +671,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89cole_inter-%C3%89tats_des_sciences_et_m%C3%A9decine_v%C3%A9t%C3%A9rinaires_de_Dakar</t>
+          <t>École_inter-États_des_sciences_et_médecine_vétérinaires_de_Dakar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -669,7 +689,9 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pr Louis Joseph Pangui a été désigné[Quand ?] directeur de l’École inter-États des sciences et médecines vétérinaires de Dakar (EISMV) à Ouagadougou par les ministres chargés des Enseignements supérieurs et de la Recherche des treize États membres de l’établissement. Élu pour un mandat de cinq ans, M. Pangui qui est enseignant depuis une vingtaine d’années à l’EISMV remplace à ce poste le Pr François Adebayo Abiola, directeur de l’établissement depuis onze ans. Justifiant la désignation du représentant du Congo au détriment des candidats du Niger et du Burkina Faso, le ministre burkinabé des Enseignements secondaire, supérieur et de la Recherche scientifique, le Pr Laya Sawadogo a invoqué l'équité géographique en indiquant que depuis 29 ans, l’EISMV est dirigé par des professeurs ressortissants d'Afrique de l'Ouest.
 Le ministre chargé de l’Enseignement supérieur et de Recherche scientifique du Togo, Komlan Messan a été désigné, quant à lui président du conseil d’administration de l’école en remplacement de son homologue centrafricain, Timoléon Mbaïkoua.
